--- a/Geap - Lucas - Copia.xlsx
+++ b/Geap - Lucas - Copia.xlsx
@@ -9,7 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Faturas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -42,7 +42,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -65,11 +65,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -87,6 +98,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -432,10 +446,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1809"/>
+  <dimension ref="A1:F1809"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -445,6 +459,7 @@
     <col width="15.85546875" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
     <col width="14" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
     <col width="12.28515625" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
+    <col width="11.28515625" bestFit="1" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -473,6 +488,11 @@
           <t>Valor Total</t>
         </is>
       </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>Verificação</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
@@ -492,12 +512,21 @@
       <c r="E2" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Fatura encontrada</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
         <v>10128119</v>
       </c>
-      <c r="B3" s="3" t="n"/>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>2081601</t>
+        </is>
+      </c>
       <c r="C3" s="4" t="n">
         <v>7698.869999999999</v>
       </c>
@@ -506,6 +535,11 @@
       </c>
       <c r="E3" s="4" t="n">
         <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Fatura encontrada</t>
+        </is>
       </c>
     </row>
     <row r="4">
